--- a/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
@@ -7102,7 +7102,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D164" t="n">

--- a/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
@@ -451,32 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>goals_scored</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>goals_conceded</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>goals_difference</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_matches</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>standing</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,19 +546,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>-3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -628,22 +628,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>-7</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -669,22 +669,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -751,22 +751,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
         <v>-1</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -918,19 +918,19 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
         <v>5</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>-3</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1041,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1085,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1120,22 +1120,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
         <v>-3</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1161,22 +1161,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1202,19 +1202,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1243,22 +1243,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1284,22 +1284,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
         <v>-1</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1366,19 +1366,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
         <v>-3</v>
       </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1489,22 +1489,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1533,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
         <v>-2</v>
       </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
         <v>-2</v>
       </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1697,16 +1697,16 @@
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
@@ -1744,13 +1744,13 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
         <v>-2</v>
       </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1817,22 +1817,22 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
-      </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>5</v>
       </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1867,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -1899,22 +1899,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
         <v>-1</v>
       </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
         <v>5</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>-4</v>
       </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2025,16 +2025,16 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
         <v>-3</v>
       </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
         <v>-2</v>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2160,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
@@ -2195,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -2227,22 +2227,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
         <v>-1</v>
       </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2268,22 +2268,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
         <v>-1</v>
       </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2356,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
         <v>-1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
         <v>-1</v>
       </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2432,22 +2432,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
         <v>-1</v>
       </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2517,16 +2517,16 @@
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2599,19 +2599,19 @@
         <v>4</v>
       </c>
       <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
         <v>5</v>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>-1</v>
       </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2637,22 +2637,22 @@
         </is>
       </c>
       <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="n">
         <v>5</v>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6</v>
-      </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2678,19 +2678,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
         <v>-2</v>
       </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2760,22 +2760,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>6</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>-6</v>
       </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2845,16 +2845,16 @@
         <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -2886,19 +2886,19 @@
         <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2924,22 +2924,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
         <v>-3</v>
       </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2965,22 +2965,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -3056,13 +3056,13 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3088,22 +3088,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
         <v>-3</v>
       </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3129,22 +3129,22 @@
         </is>
       </c>
       <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
         <v>6</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4</v>
-      </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
         <v>5</v>
       </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3173,13 +3173,13 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -3211,22 +3211,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>7</v>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>-7</v>
       </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3293,22 +3293,22 @@
         </is>
       </c>
       <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" t="n">
         <v>5</v>
       </c>
-      <c r="E70" t="n">
-        <v>3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>6</v>
-      </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3334,19 +3334,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -3378,19 +3378,19 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
         <v>-1</v>
       </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3416,22 +3416,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
         <v>-1</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3457,22 +3457,22 @@
         </is>
       </c>
       <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" t="n">
         <v>5</v>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
-      </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3504,13 +3504,13 @@
         <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
         <v>-1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -3539,22 +3539,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="n">
         <v>-1</v>
       </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3580,22 +3580,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
         <v>-2</v>
       </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3621,22 +3621,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3662,19 +3662,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -3703,22 +3703,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
         <v>-1</v>
       </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
         <v>-2</v>
       </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3785,22 +3785,22 @@
         </is>
       </c>
       <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
         <v>6</v>
       </c>
-      <c r="G82" t="n">
-        <v>6</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3826,19 +3826,19 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -3867,22 +3867,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
         <v>-3</v>
       </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3908,22 +3908,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="n">
         <v>-3</v>
       </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
         <v>6</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3990,19 +3990,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="n">
         <v>-2</v>
       </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4072,22 +4072,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
         <v>-3</v>
       </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4113,22 +4113,22 @@
         </is>
       </c>
       <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="E90" t="n">
-        <v>2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4</v>
-      </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4154,19 +4154,19 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="n">
         <v>5</v>
       </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>-2</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -4204,13 +4204,13 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4236,22 +4236,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
         <v>-1</v>
       </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4277,22 +4277,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -4327,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -4368,13 +4368,13 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4400,22 +4400,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="n">
         <v>-2</v>
       </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4441,22 +4441,22 @@
         </is>
       </c>
       <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
         <v>5</v>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4</v>
-      </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4482,10 +4482,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>4</v>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -4532,13 +4532,13 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4564,22 +4564,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
         <v>7</v>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>-6</v>
       </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4605,22 +4605,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4646,19 +4646,19 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
         <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -4687,22 +4687,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="n">
         <v>-1</v>
       </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4728,22 +4728,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
         <v>5</v>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>-2</v>
       </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4769,22 +4769,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4813,16 +4813,16 @@
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -4851,22 +4851,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="n">
         <v>-1</v>
       </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4892,22 +4892,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="n">
         <v>-3</v>
       </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -4983,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -5024,13 +5024,13 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5056,22 +5056,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="n">
         <v>-1</v>
       </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5097,22 +5097,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5138,19 +5138,19 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -5179,22 +5179,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5220,22 +5220,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="n">
         <v>-4</v>
       </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5302,19 +5302,19 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -5343,22 +5343,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
+        <v>3</v>
+      </c>
+      <c r="H120" t="n">
         <v>-1</v>
       </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5384,22 +5384,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="n">
         <v>-4</v>
       </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5425,22 +5425,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5466,19 +5466,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
         <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="n">
         <v>-1</v>
       </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5548,22 +5548,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H125" t="n">
         <v>-3</v>
       </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5639,10 +5639,10 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -5671,22 +5671,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5712,22 +5712,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="n">
         <v>-2</v>
       </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
       <c r="I129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
         <v>6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>6</v>
       </c>
       <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
         <v>6</v>
       </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5794,16 +5794,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
@@ -5835,22 +5835,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
       </c>
       <c r="G132" t="n">
+        <v>4</v>
+      </c>
+      <c r="H132" t="n">
         <v>-3</v>
       </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -5876,22 +5876,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
         <v>5</v>
       </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="H133" t="n">
         <v>-5</v>
       </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5917,22 +5917,22 @@
         </is>
       </c>
       <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6</v>
+      </c>
+      <c r="F134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>6</v>
-      </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -5958,19 +5958,19 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -5999,22 +5999,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
+        <v>3</v>
+      </c>
+      <c r="H136" t="n">
         <v>-2</v>
       </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6040,22 +6040,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="n">
         <v>-2</v>
       </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6081,22 +6081,22 @@
         </is>
       </c>
       <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
         <v>5</v>
       </c>
-      <c r="E138" t="n">
-        <v>2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>6</v>
-      </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6122,19 +6122,19 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -6172,13 +6172,13 @@
         <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6204,22 +6204,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
         <v>5</v>
       </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>-3</v>
       </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6245,22 +6245,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6286,19 +6286,19 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -6327,22 +6327,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
         <v>-1</v>
       </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6368,22 +6368,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
         <v>-2</v>
       </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6412,19 +6412,19 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6453,16 +6453,16 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -6491,22 +6491,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6532,22 +6532,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="n">
         <v>-1</v>
       </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -6573,22 +6573,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6614,19 +6614,19 @@
         </is>
       </c>
       <c r="D151" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3</v>
+      </c>
+      <c r="F151" t="n">
         <v>5</v>
       </c>
-      <c r="E151" t="n">
-        <v>4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3</v>
-      </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -6655,22 +6655,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152" t="n">
         <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -6696,22 +6696,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
         <v>-3</v>
       </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -6737,22 +6737,22 @@
         </is>
       </c>
       <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6</v>
+      </c>
+      <c r="F154" t="n">
         <v>7</v>
       </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
         <v>6</v>
       </c>
-      <c r="G154" t="n">
-        <v>6</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F155" t="n">
         <v>4</v>
@@ -6819,22 +6819,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
         <v>6</v>
       </c>
-      <c r="F156" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
         <v>-4</v>
       </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -6860,22 +6860,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
         <v>5</v>
       </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
         <v>-4</v>
       </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -6901,22 +6901,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -6945,16 +6945,16 @@
         <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -6986,19 +6986,19 @@
         <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="n">
         <v>-1</v>
       </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7024,22 +7024,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="n">
         <v>5</v>
       </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
         <v>-3</v>
       </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7065,22 +7065,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7115,10 +7115,10 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -7156,13 +7156,13 @@
         <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7188,22 +7188,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
       </c>
       <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="n">
         <v>-1</v>
       </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7270,19 +7270,19 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -7314,19 +7314,19 @@
         <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
         <v>3</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7352,22 +7352,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
         <v>5</v>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>-3</v>
       </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
       <c r="I169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
         <v>3</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7437,16 +7437,16 @@
         <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7516,22 +7516,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
+        <v>4</v>
+      </c>
+      <c r="H173" t="n">
         <v>-2</v>
       </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7557,22 +7557,22 @@
         </is>
       </c>
       <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6</v>
+      </c>
+      <c r="F174" t="n">
         <v>5</v>
       </c>
-      <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6</v>
-      </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7598,19 +7598,19 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>3</v>
       </c>
       <c r="G175" t="n">
+        <v>4</v>
+      </c>
+      <c r="H175" t="n">
         <v>-1</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -7639,22 +7639,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
+        <v>3</v>
+      </c>
+      <c r="H176" t="n">
         <v>-1</v>
       </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -7680,22 +7680,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
+        <v>4</v>
+      </c>
+      <c r="H177" t="n">
         <v>-2</v>
       </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>

--- a/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/before_last_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
